--- a/go-generate-excel/report_template/ex_report.xlsx
+++ b/go-generate-excel/report_template/ex_report.xlsx
@@ -98,7 +98,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -106,6 +106,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -132,20 +153,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,56 +262,61 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>44928</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
